--- a/Data/2018.xlsx
+++ b/Data/2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AdityaG/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{450A11D5-0504-CA44-B276-31C5F1CCAB74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944DB05C-30CC-BF43-9133-87134BAA2AB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7820" yWindow="440" windowWidth="28800" windowHeight="15640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="15640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reservoir Trends Report" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>Reservoir Name</t>
   </si>
   <si>
-    <t>Live Capacity at FRL (BCM)</t>
-  </si>
-  <si>
     <t>Jan 2018</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>Upper TapiHatnur Reservoir</t>
   </si>
   <si>
-    <t>0.26</t>
-  </si>
-  <si>
     <t>JALGAON</t>
   </si>
   <si>
@@ -85,9 +79,6 @@
     <t>Isapur Reservoir</t>
   </si>
   <si>
-    <t>0.96</t>
-  </si>
-  <si>
     <t>AURANGABAD</t>
   </si>
   <si>
@@ -97,9 +88,6 @@
     <t>Bhatsa</t>
   </si>
   <si>
-    <t>0.94</t>
-  </si>
-  <si>
     <t>THANE</t>
   </si>
   <si>
@@ -109,9 +97,6 @@
     <t>Koyana/Shivaji Sagar</t>
   </si>
   <si>
-    <t>2.65</t>
-  </si>
-  <si>
     <t>PUNE</t>
   </si>
   <si>
@@ -121,93 +106,60 @@
     <t>Dudhganga</t>
   </si>
   <si>
-    <t>0.66</t>
-  </si>
-  <si>
     <t>NASHIK</t>
   </si>
   <si>
     <t>Khadakwasla Reservoir</t>
   </si>
   <si>
-    <t>0.06</t>
-  </si>
-  <si>
     <t>SATARA</t>
   </si>
   <si>
     <t>Bhandardara</t>
   </si>
   <si>
-    <t>0.3</t>
-  </si>
-  <si>
     <t>AHMADNAGAR</t>
   </si>
   <si>
     <t>Upper Vaitarana Reservoir</t>
   </si>
   <si>
-    <t>0.33</t>
-  </si>
-  <si>
     <t>Manikdoh</t>
   </si>
   <si>
-    <t>0.29</t>
-  </si>
-  <si>
     <t>Yeldari Reservoir</t>
   </si>
   <si>
-    <t>0.81</t>
-  </si>
-  <si>
     <t>PARBHANI</t>
   </si>
   <si>
     <t>Urmodi</t>
   </si>
   <si>
-    <t>0.27</t>
-  </si>
-  <si>
     <t>Niradevghar</t>
   </si>
   <si>
     <t>Upper Wardha Reservoir</t>
   </si>
   <si>
-    <t>0.56</t>
-  </si>
-  <si>
     <t>AMRAVATI</t>
   </si>
   <si>
     <t>Mula Reservoir</t>
   </si>
   <si>
-    <t>0.61</t>
-  </si>
-  <si>
     <t>NAGPUR</t>
   </si>
   <si>
     <t>PenchTotladoh Reservoir</t>
   </si>
   <si>
-    <t>1.09</t>
-  </si>
-  <si>
     <t>SOLAPUR</t>
   </si>
   <si>
     <t>Bhatghar</t>
   </si>
   <si>
-    <t>0.67</t>
-  </si>
-  <si>
     <t>Dhom</t>
   </si>
   <si>
@@ -217,22 +169,13 @@
     <t>JayakwadiNath Sagar</t>
   </si>
   <si>
-    <t>2.17</t>
-  </si>
-  <si>
     <t>Girna Reservoir</t>
   </si>
   <si>
-    <t>0.52</t>
-  </si>
-  <si>
     <t>HINGOLI</t>
   </si>
   <si>
     <t>BhimaUjjani Reservoir</t>
-  </si>
-  <si>
-    <t>1.52</t>
   </si>
 </sst>
 </file>
@@ -584,15 +527,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -638,472 +581,442 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
+      <c r="B2">
+        <v>0.17</v>
       </c>
       <c r="C2">
-        <v>0.17</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D2">
-        <v>0.14000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="E2">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="F2">
         <v>0.05</v>
       </c>
       <c r="G2">
+        <v>0.02</v>
+      </c>
+      <c r="H2">
         <v>0.05</v>
       </c>
-      <c r="H2">
-        <v>0.02</v>
-      </c>
       <c r="I2">
-        <v>0.05</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J2">
-        <v>0.14000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="K2">
         <v>0.25</v>
       </c>
       <c r="L2">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="M2">
-        <v>0.22</v>
-      </c>
-      <c r="N2">
         <v>0.18</v>
       </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
       <c r="O2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="P2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
+      <c r="B3">
+        <v>0.06</v>
       </c>
       <c r="C3">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="D3">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E3">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="H3">
-        <v>0.04</v>
+        <v>0.31</v>
       </c>
       <c r="I3">
-        <v>0.31</v>
+        <v>0.64</v>
       </c>
       <c r="J3">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="K3">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="L3">
-        <v>0.62</v>
+        <v>0.53</v>
       </c>
       <c r="M3">
-        <v>0.53</v>
-      </c>
-      <c r="N3">
         <v>0.46</v>
       </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
       <c r="O3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>0.67</v>
       </c>
       <c r="C4">
-        <v>0.67</v>
+        <v>0.59</v>
       </c>
       <c r="D4">
-        <v>0.59</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <v>0.5</v>
+        <v>0.41</v>
       </c>
       <c r="F4">
         <v>0.41</v>
       </c>
       <c r="G4">
-        <v>0.41</v>
+        <v>0.34</v>
       </c>
       <c r="H4">
-        <v>0.34</v>
+        <v>0.78</v>
       </c>
       <c r="I4">
-        <v>0.78</v>
+        <v>0.91</v>
       </c>
       <c r="J4">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="K4">
-        <v>0.89</v>
+        <v>0.81</v>
       </c>
       <c r="L4">
-        <v>0.81</v>
+        <v>0.73</v>
       </c>
       <c r="M4">
-        <v>0.73</v>
-      </c>
-      <c r="N4">
         <v>0.67</v>
       </c>
+      <c r="N4" t="s">
+        <v>22</v>
+      </c>
       <c r="O4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="C5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D5">
+        <v>1.73</v>
+      </c>
+      <c r="E5">
+        <v>1.25</v>
+      </c>
+      <c r="F5">
+        <v>1.24</v>
+      </c>
+      <c r="G5">
+        <v>0.7</v>
+      </c>
+      <c r="H5">
+        <v>2.29</v>
+      </c>
+      <c r="I5">
+        <v>2.65</v>
+      </c>
+      <c r="J5">
+        <v>2.62</v>
+      </c>
+      <c r="K5">
+        <v>2.39</v>
+      </c>
+      <c r="L5">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="M5">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="N5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" t="s">
         <v>26</v>
       </c>
-      <c r="P4" t="s">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>0.52</v>
+      </c>
+      <c r="C6">
+        <v>0.44</v>
+      </c>
+      <c r="D6">
+        <v>0.35</v>
+      </c>
+      <c r="E6">
+        <v>0.24</v>
+      </c>
+      <c r="F6">
+        <v>0.23</v>
+      </c>
+      <c r="G6">
+        <v>0.2</v>
+      </c>
+      <c r="H6">
+        <v>0.59</v>
+      </c>
+      <c r="I6">
+        <v>0.64</v>
+      </c>
+      <c r="J6">
+        <v>0.66</v>
+      </c>
+      <c r="K6">
+        <v>0.63</v>
+      </c>
+      <c r="L6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M6">
+        <v>0.51</v>
+      </c>
+      <c r="N6" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
+      <c r="O6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="C5">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="D5">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="E5">
-        <v>1.73</v>
-      </c>
-      <c r="F5">
-        <v>1.25</v>
-      </c>
-      <c r="G5">
-        <v>1.24</v>
-      </c>
-      <c r="H5">
-        <v>0.7</v>
-      </c>
-      <c r="I5">
-        <v>2.29</v>
-      </c>
-      <c r="J5">
-        <v>2.65</v>
-      </c>
-      <c r="K5">
-        <v>2.62</v>
-      </c>
-      <c r="L5">
-        <v>2.39</v>
-      </c>
-      <c r="M5">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="N5">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="O5" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6">
-        <v>0.52</v>
-      </c>
-      <c r="D6">
-        <v>0.44</v>
-      </c>
-      <c r="E6">
-        <v>0.35</v>
-      </c>
-      <c r="F6">
-        <v>0.24</v>
-      </c>
-      <c r="G6">
-        <v>0.23</v>
-      </c>
-      <c r="H6">
-        <v>0.2</v>
-      </c>
-      <c r="I6">
-        <v>0.59</v>
-      </c>
-      <c r="J6">
-        <v>0.64</v>
-      </c>
-      <c r="K6">
-        <v>0.66</v>
-      </c>
-      <c r="L6">
-        <v>0.63</v>
-      </c>
-      <c r="M6">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="N6">
-        <v>0.51</v>
-      </c>
-      <c r="O6" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
+      <c r="B7">
+        <v>0.03</v>
       </c>
       <c r="C7">
+        <v>0.04</v>
+      </c>
+      <c r="D7">
         <v>0.03</v>
       </c>
-      <c r="D7">
-        <v>0.04</v>
-      </c>
       <c r="E7">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F7">
         <v>0.05</v>
       </c>
       <c r="G7">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="H7">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="I7">
         <v>0.06</v>
       </c>
       <c r="J7">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="K7">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="L7">
+        <v>0.04</v>
+      </c>
+      <c r="M7">
         <v>0.03</v>
       </c>
-      <c r="M7">
-        <v>0.04</v>
-      </c>
-      <c r="N7">
-        <v>0.03</v>
+      <c r="N7" t="s">
+        <v>30</v>
       </c>
       <c r="O7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
+      <c r="B8">
+        <v>0.28000000000000003</v>
       </c>
       <c r="C8">
-        <v>0.28000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="D8">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="E8">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="F8">
         <v>0.13</v>
       </c>
       <c r="G8">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="H8">
-        <v>0.1</v>
+        <v>0.26</v>
       </c>
       <c r="I8">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="J8">
         <v>0.3</v>
       </c>
       <c r="K8">
-        <v>0.3</v>
+        <v>0.19</v>
       </c>
       <c r="L8">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="M8">
-        <v>0.13</v>
-      </c>
-      <c r="N8">
         <v>0.12</v>
       </c>
+      <c r="N8" t="s">
+        <v>32</v>
+      </c>
       <c r="O8" t="s">
-        <v>40</v>
-      </c>
-      <c r="P8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>0.25</v>
+      </c>
+      <c r="C9">
+        <v>0.2</v>
+      </c>
+      <c r="D9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.1</v>
+      </c>
+      <c r="F9">
+        <v>0.09</v>
+      </c>
+      <c r="G9">
+        <v>0.11</v>
+      </c>
+      <c r="H9">
+        <v>0.26</v>
+      </c>
+      <c r="I9">
+        <v>0.31</v>
+      </c>
+      <c r="J9">
+        <v>0.33</v>
+      </c>
+      <c r="K9">
+        <v>0.32</v>
+      </c>
+      <c r="L9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M9">
+        <v>0.27</v>
+      </c>
+      <c r="N9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9">
-        <v>0.25</v>
-      </c>
-      <c r="D9">
-        <v>0.2</v>
-      </c>
-      <c r="E9">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F9">
-        <v>0.1</v>
-      </c>
-      <c r="G9">
-        <v>0.09</v>
-      </c>
-      <c r="H9">
-        <v>0.11</v>
-      </c>
-      <c r="I9">
-        <v>0.26</v>
-      </c>
-      <c r="J9">
-        <v>0.31</v>
-      </c>
-      <c r="K9">
-        <v>0.33</v>
-      </c>
-      <c r="L9">
-        <v>0.32</v>
-      </c>
-      <c r="M9">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="N9">
-        <v>0.27</v>
-      </c>
-      <c r="O9" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>34</v>
       </c>
-      <c r="P9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
+      <c r="B10">
+        <v>0.17</v>
       </c>
       <c r="C10">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="D10">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="E10">
+        <v>0.05</v>
+      </c>
+      <c r="F10">
+        <v>0.04</v>
+      </c>
+      <c r="G10">
+        <v>0.02</v>
+      </c>
+      <c r="H10">
+        <v>0.12</v>
+      </c>
+      <c r="I10">
+        <v>0.21</v>
+      </c>
+      <c r="J10">
+        <v>0.22</v>
+      </c>
+      <c r="K10">
+        <v>0.18</v>
+      </c>
+      <c r="L10">
         <v>0.08</v>
       </c>
-      <c r="F10">
-        <v>0.05</v>
-      </c>
-      <c r="G10">
+      <c r="M10">
         <v>0.04</v>
       </c>
-      <c r="H10">
-        <v>0.02</v>
-      </c>
-      <c r="I10">
-        <v>0.12</v>
-      </c>
-      <c r="J10">
-        <v>0.21</v>
-      </c>
-      <c r="K10">
-        <v>0.22</v>
-      </c>
-      <c r="L10">
-        <v>0.18</v>
-      </c>
-      <c r="M10">
-        <v>0.08</v>
-      </c>
-      <c r="N10">
+      <c r="N10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
         <v>0.04</v>
-      </c>
-      <c r="O10" t="s">
-        <v>40</v>
-      </c>
-      <c r="P10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
       </c>
       <c r="C11">
         <v>0.04</v>
       </c>
       <c r="D11">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1118,528 +1031,495 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J11">
+        <v>0.08</v>
+      </c>
+      <c r="K11">
         <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K11">
-        <v>0.08</v>
       </c>
       <c r="L11">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N11">
         <v>0.06</v>
       </c>
+      <c r="N11" t="s">
+        <v>36</v>
+      </c>
       <c r="O11" t="s">
-        <v>47</v>
-      </c>
-      <c r="P11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>0.24</v>
       </c>
       <c r="C12">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="D12">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="E12">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="F12">
         <v>0.17</v>
       </c>
       <c r="G12">
+        <v>0.1</v>
+      </c>
+      <c r="H12">
+        <v>0.23</v>
+      </c>
+      <c r="I12">
+        <v>0.27</v>
+      </c>
+      <c r="J12">
+        <v>0.25</v>
+      </c>
+      <c r="K12">
+        <v>0.21</v>
+      </c>
+      <c r="L12">
+        <v>0.19</v>
+      </c>
+      <c r="M12">
+        <v>0.16</v>
+      </c>
+      <c r="N12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>0.23</v>
+      </c>
+      <c r="C13">
         <v>0.17</v>
       </c>
-      <c r="H12">
-        <v>0.1</v>
-      </c>
-      <c r="I12">
-        <v>0.23</v>
-      </c>
-      <c r="J12">
-        <v>0.27</v>
-      </c>
-      <c r="K12">
-        <v>0.25</v>
-      </c>
-      <c r="L12">
-        <v>0.21</v>
-      </c>
-      <c r="M12">
-        <v>0.19</v>
-      </c>
-      <c r="N12">
-        <v>0.16</v>
-      </c>
-      <c r="O12" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13">
-        <v>0.23</v>
-      </c>
       <c r="D13">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="E13">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="F13">
         <v>0.08</v>
       </c>
       <c r="G13">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="H13">
-        <v>0.03</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I13">
-        <v>0.28000000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="J13">
         <v>0.33</v>
       </c>
       <c r="K13">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="L13">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="M13">
+        <v>0.2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>0.35</v>
+      </c>
+      <c r="C14">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D14">
+        <v>0.25</v>
+      </c>
+      <c r="E14">
+        <v>0.23</v>
+      </c>
+      <c r="F14">
+        <v>0.22</v>
+      </c>
+      <c r="G14">
+        <v>0.19</v>
+      </c>
+      <c r="H14">
+        <v>0.26</v>
+      </c>
+      <c r="I14">
         <v>0.27</v>
       </c>
-      <c r="N13">
+      <c r="J14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K14">
+        <v>0.24</v>
+      </c>
+      <c r="L14">
         <v>0.2</v>
       </c>
-      <c r="O13" t="s">
-        <v>30</v>
-      </c>
-      <c r="P13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14">
-        <v>0.35</v>
-      </c>
-      <c r="D14">
+      <c r="M14">
+        <v>0.15</v>
+      </c>
+      <c r="N14" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15">
+        <v>0.46</v>
+      </c>
+      <c r="C15">
+        <v>0.43</v>
+      </c>
+      <c r="D15">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E14">
-        <v>0.25</v>
-      </c>
-      <c r="F14">
-        <v>0.23</v>
-      </c>
-      <c r="G14">
-        <v>0.22</v>
-      </c>
-      <c r="H14">
+      <c r="E15">
         <v>0.19</v>
-      </c>
-      <c r="I14">
-        <v>0.26</v>
-      </c>
-      <c r="J14">
-        <v>0.27</v>
-      </c>
-      <c r="K14">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="L14">
-        <v>0.24</v>
-      </c>
-      <c r="M14">
-        <v>0.2</v>
-      </c>
-      <c r="N14">
-        <v>0.15</v>
-      </c>
-      <c r="O14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15">
-        <v>0.46</v>
-      </c>
-      <c r="D15">
-        <v>0.43</v>
-      </c>
-      <c r="E15">
-        <v>0.28000000000000003</v>
       </c>
       <c r="F15">
         <v>0.19</v>
       </c>
       <c r="G15">
-        <v>0.19</v>
+        <v>0.01</v>
       </c>
       <c r="H15">
-        <v>0.01</v>
+        <v>0.32</v>
       </c>
       <c r="I15">
-        <v>0.32</v>
+        <v>0.44</v>
       </c>
       <c r="J15">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="K15">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="L15">
-        <v>0.39</v>
+        <v>0.27</v>
       </c>
       <c r="M15">
-        <v>0.27</v>
-      </c>
-      <c r="N15">
         <v>0.16</v>
       </c>
+      <c r="N15" t="s">
+        <v>42</v>
+      </c>
       <c r="O15" t="s">
-        <v>56</v>
-      </c>
-      <c r="P15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" t="s">
-        <v>58</v>
+        <v>43</v>
+      </c>
+      <c r="B16">
+        <v>0.18</v>
       </c>
       <c r="C16">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="D16">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="E16">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="F16">
         <v>0.12</v>
       </c>
       <c r="G16">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="H16">
-        <v>0.05</v>
+        <v>0.22</v>
       </c>
       <c r="I16">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="J16">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="K16">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="L16">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="M16">
-        <v>0.13</v>
-      </c>
-      <c r="N16">
         <v>0.11</v>
       </c>
+      <c r="N16" t="s">
+        <v>44</v>
+      </c>
       <c r="O16" t="s">
-        <v>59</v>
-      </c>
-      <c r="P16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" t="s">
-        <v>61</v>
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <v>0.52</v>
       </c>
       <c r="C17">
-        <v>0.52</v>
+        <v>0.47</v>
       </c>
       <c r="D17">
-        <v>0.47</v>
+        <v>0.38</v>
       </c>
       <c r="E17">
-        <v>0.38</v>
+        <v>0.19</v>
       </c>
       <c r="F17">
         <v>0.19</v>
       </c>
       <c r="G17">
-        <v>0.19</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I17">
-        <v>0.56999999999999995</v>
+        <v>0.67</v>
       </c>
       <c r="J17">
         <v>0.67</v>
       </c>
       <c r="K17">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="L17">
-        <v>0.66</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="M17">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N17">
         <v>0.42</v>
       </c>
+      <c r="N17" t="s">
+        <v>25</v>
+      </c>
       <c r="O17" t="s">
-        <v>30</v>
-      </c>
-      <c r="P17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="B18">
+        <v>0.23</v>
       </c>
       <c r="C18">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="D18">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="E18">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F18">
         <v>0.1</v>
       </c>
       <c r="G18">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H18">
-        <v>0.05</v>
+        <v>0.27</v>
       </c>
       <c r="I18">
+        <v>0.31</v>
+      </c>
+      <c r="J18">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K18">
         <v>0.27</v>
       </c>
-      <c r="J18">
-        <v>0.31</v>
-      </c>
-      <c r="K18">
-        <v>0.28999999999999998</v>
-      </c>
       <c r="L18">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="M18">
-        <v>0.23</v>
-      </c>
-      <c r="N18">
         <v>0.19</v>
       </c>
+      <c r="N18" t="s">
+        <v>47</v>
+      </c>
       <c r="O18" t="s">
-        <v>63</v>
-      </c>
-      <c r="P18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" t="s">
-        <v>65</v>
+        <v>48</v>
+      </c>
+      <c r="B19">
+        <v>1.63</v>
       </c>
       <c r="C19">
-        <v>1.63</v>
+        <v>1.42</v>
       </c>
       <c r="D19">
-        <v>1.42</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E19">
-        <v>1.1499999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F19">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="G19">
-        <v>0.87</v>
+        <v>0.46</v>
       </c>
       <c r="H19">
-        <v>0.46</v>
+        <v>0.7</v>
       </c>
       <c r="I19">
-        <v>0.7</v>
+        <v>1.03</v>
       </c>
       <c r="J19">
-        <v>1.03</v>
+        <v>0.94</v>
       </c>
       <c r="K19">
-        <v>0.94</v>
+        <v>0.65</v>
       </c>
       <c r="L19">
-        <v>0.65</v>
+        <v>0.59</v>
       </c>
       <c r="M19">
-        <v>0.59</v>
-      </c>
-      <c r="N19">
         <v>0.47</v>
       </c>
+      <c r="N19" t="s">
+        <v>25</v>
+      </c>
       <c r="O19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" t="s">
-        <v>67</v>
+        <v>49</v>
+      </c>
+      <c r="B20">
+        <v>0.2</v>
       </c>
       <c r="C20">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="D20">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E20">
-        <v>0.14000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="F20">
         <v>0.09</v>
       </c>
       <c r="G20">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="H20">
-        <v>0.05</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I20">
-        <v>0.14000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="J20">
         <v>0.25</v>
       </c>
       <c r="K20">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="L20">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="M20">
-        <v>0.2</v>
-      </c>
-      <c r="N20">
         <v>0.19</v>
       </c>
+      <c r="N20" t="s">
+        <v>50</v>
+      </c>
       <c r="O20" t="s">
-        <v>68</v>
-      </c>
-      <c r="P20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" t="s">
-        <v>70</v>
+        <v>51</v>
+      </c>
+      <c r="B21">
+        <v>1.24</v>
       </c>
       <c r="C21">
-        <v>1.24</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D21">
-        <v>1.1499999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="E21">
-        <v>0.72</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F21">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="G21">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="I21">
-        <v>0.52</v>
+        <v>1.52</v>
       </c>
       <c r="J21">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="K21">
-        <v>1.51</v>
+        <v>1.29</v>
       </c>
       <c r="L21">
-        <v>1.29</v>
+        <v>0.81</v>
       </c>
       <c r="M21">
-        <v>0.81</v>
-      </c>
-      <c r="N21">
         <v>0.65</v>
       </c>
+      <c r="N21" t="s">
+        <v>30</v>
+      </c>
       <c r="O21" t="s">
-        <v>37</v>
-      </c>
-      <c r="P21" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
